--- a/biology/Zoologie/Gecko_diurne_de_Rodrigues/Gecko_diurne_de_Rodrigues.xlsx
+++ b/biology/Zoologie/Gecko_diurne_de_Rodrigues/Gecko_diurne_de_Rodrigues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phelsuma edwardnewtoni
-Phelsuma edwardnewtoni, le Gecko diurne de Rodrigues est une espèce éteinte de geckos de la famille des Gekkonidae[1].
+Phelsuma edwardnewtoni, le Gecko diurne de Rodrigues est une espèce éteinte de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique de Rodrigues[1].
-Cette espèce a été observée jusqu'au début des années 1900, mais est introuvable depuis, malgré des recherches poussées en 1960 et en 1970 sur l'île de Rodrigues et dans les îlots alentour. Elle est considérée comme éteinte par Austin, Arnold &amp; Jones, 2004[2].
-Six spécimens sont conservés : trois au musée d'histoire naturelle de Londres et deux Muséum national d'histoire naturelle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique de Rodrigues.
+Cette espèce a été observée jusqu'au début des années 1900, mais est introuvable depuis, malgré des recherches poussées en 1960 et en 1970 sur l'île de Rodrigues et dans les îlots alentour. Elle est considérée comme éteinte par Austin, Arnold &amp; Jones, 2004.
+Six spécimens sont conservés : trois au musée d'histoire naturelle de Londres et deux Muséum national d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été figurée sur un timbre de Maurice (8 r.)
 </t>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Newton[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Newton.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vinson &amp; Vinson, 1969 : The saurian fauna of the Mascarene Islands. Mauritius Institute Bulletin, vol. 6, p. 203-320.
 Boulenger, 1884 : Note upon a large Lizard of the Genus Phelsuma, from Rodriguez, sent by Mr. J. C. O'Halloran. Proceedings of the Zoological Society of London, vol. 1884, p. 1-2.</t>
